--- a/results/final_summary_sorted.xlsx
+++ b/results/final_summary_sorted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="48">
   <si>
     <t>Experiment_Name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>mc_aplasia_45_days_codes_trees</t>
   </si>
   <si>
+    <t>kane_mc_aplasia_45_days_codes_mlp2layer</t>
+  </si>
+  <si>
     <t>kane_mc_aplasia_45_days_codes_mlp_1layer</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>mc_aplasia_45_days_codes_upto_trees</t>
+  </si>
+  <si>
+    <t>kane_mc_aplasia_45_days_codes_upto_mlp2layer</t>
   </si>
   <si>
     <t>kane_mc_aplasia_45_days_codes_upto_mlp_1layer</t>
@@ -85,6 +91,9 @@
     <t>mc_NF_30_days_codes_trees</t>
   </si>
   <si>
+    <t>kane_mc_NF_30_days_codes_mlp2layer</t>
+  </si>
+  <si>
     <t>kane_mc_NF_30_days_codes_mlp_1layer</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>mc_NF_30_days_codes_upto_trees</t>
+  </si>
+  <si>
+    <t>kane_mc_NF_30_days_upto_codes_mlp2layer</t>
   </si>
   <si>
     <t>kane_mc_NF_30_days_upto_codes_mlp_1layer</t>
@@ -140,6 +152,9 @@
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>MLP_2Layer</t>
   </si>
   <si>
     <t>MLP_1Layer</t>
@@ -500,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>0.80954</v>
@@ -584,16 +599,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>0.80122</v>
@@ -619,16 +634,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0.78504</v>
@@ -654,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0.79303</v>
@@ -689,16 +704,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>0.7909</v>
@@ -724,16 +739,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>0.77256</v>
@@ -759,16 +774,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>0.81085</v>
@@ -794,16 +809,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>0.78908</v>
@@ -829,16 +844,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>0.78142</v>
@@ -864,37 +879,37 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>0.62463</v>
+        <v>0.62891</v>
       </c>
       <c r="H11">
-        <v>0.02211</v>
+        <v>0.0149</v>
       </c>
       <c r="I11">
-        <v>0.39378</v>
+        <v>0.38682</v>
       </c>
       <c r="J11">
-        <v>0.01718</v>
+        <v>0.01775</v>
       </c>
       <c r="K11">
-        <v>0.32802</v>
+        <v>0.32665</v>
       </c>
       <c r="L11">
-        <v>0.03947</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -902,189 +917,189 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>0.55193</v>
+        <v>0.62463</v>
       </c>
       <c r="H12">
-        <v>0.04451</v>
+        <v>0.02211</v>
       </c>
       <c r="I12">
-        <v>0.09636</v>
+        <v>0.39378</v>
       </c>
       <c r="J12">
-        <v>0.03033</v>
+        <v>0.01718</v>
       </c>
       <c r="K12">
-        <v>0.06645</v>
+        <v>0.32802</v>
       </c>
       <c r="L12">
-        <v>0.0166</v>
+        <v>0.03947</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <v>0.56632</v>
+        <v>0.55193</v>
       </c>
       <c r="H13">
-        <v>0.04884</v>
+        <v>0.04451</v>
       </c>
       <c r="I13">
-        <v>0.03278</v>
+        <v>0.09636</v>
       </c>
       <c r="J13">
-        <v>0.03478</v>
+        <v>0.03033</v>
       </c>
       <c r="K13">
-        <v>0.06694</v>
+        <v>0.06645</v>
       </c>
       <c r="L13">
-        <v>0.00772</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>0.54217</v>
+        <v>0.56632</v>
       </c>
       <c r="H14">
-        <v>0.04046</v>
+        <v>0.04884</v>
       </c>
       <c r="I14">
-        <v>0.06252000000000001</v>
+        <v>0.03278</v>
       </c>
       <c r="J14">
-        <v>0.03314</v>
+        <v>0.03478</v>
       </c>
       <c r="K14">
-        <v>0.06329</v>
+        <v>0.06694</v>
       </c>
       <c r="L14">
-        <v>0.01599</v>
+        <v>0.00772</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>0.70866</v>
+        <v>0.54217</v>
       </c>
       <c r="H15">
-        <v>0.02532</v>
+        <v>0.04046</v>
       </c>
       <c r="I15">
-        <v>0.45074</v>
+        <v>0.06252000000000001</v>
       </c>
       <c r="J15">
-        <v>0.01537</v>
+        <v>0.03314</v>
       </c>
       <c r="K15">
-        <v>0.38869</v>
+        <v>0.06329</v>
       </c>
       <c r="L15">
-        <v>0.03274</v>
+        <v>0.01599</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>0.59896</v>
+        <v>0.70797</v>
       </c>
       <c r="H16">
-        <v>0.03596</v>
+        <v>0.02678</v>
       </c>
       <c r="I16">
-        <v>0.04876</v>
+        <v>0.44794</v>
       </c>
       <c r="J16">
-        <v>0.04544</v>
+        <v>0.01501</v>
       </c>
       <c r="K16">
-        <v>0.06924</v>
+        <v>0.39205</v>
       </c>
       <c r="L16">
-        <v>0.00777</v>
+        <v>0.02914</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1092,189 +1107,189 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>0.58067</v>
+        <v>0.70866</v>
       </c>
       <c r="H17">
-        <v>0.03442</v>
+        <v>0.02532</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.45074</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01537</v>
       </c>
       <c r="K17">
-        <v>0.06275</v>
+        <v>0.38869</v>
       </c>
       <c r="L17">
-        <v>0.01151</v>
+        <v>0.03274</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18">
-        <v>0.58019</v>
+        <v>0.59896</v>
       </c>
       <c r="H18">
-        <v>0.04115</v>
+        <v>0.03596</v>
       </c>
       <c r="I18">
-        <v>0.02346</v>
+        <v>0.04876</v>
       </c>
       <c r="J18">
-        <v>0.0241</v>
+        <v>0.04544</v>
       </c>
       <c r="K18">
-        <v>0.06526</v>
+        <v>0.06924</v>
       </c>
       <c r="L18">
-        <v>0.01201</v>
+        <v>0.00777</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>0.70417</v>
+        <v>0.58067</v>
       </c>
       <c r="H19">
-        <v>0.02704</v>
+        <v>0.03442</v>
       </c>
       <c r="I19">
-        <v>0.44088</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02766</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.39424</v>
+        <v>0.06275</v>
       </c>
       <c r="L19">
-        <v>0.03236</v>
+        <v>0.01151</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>0.57987</v>
+        <v>0.58019</v>
       </c>
       <c r="H20">
-        <v>0.04012</v>
+        <v>0.04115</v>
       </c>
       <c r="I20">
-        <v>0.06952</v>
+        <v>0.02346</v>
       </c>
       <c r="J20">
-        <v>0.03958</v>
+        <v>0.0241</v>
       </c>
       <c r="K20">
-        <v>0.0696</v>
+        <v>0.06526</v>
       </c>
       <c r="L20">
-        <v>0.01616</v>
+        <v>0.01201</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>0.5995</v>
+        <v>0.71195</v>
       </c>
       <c r="H21">
-        <v>0.0349</v>
+        <v>0.01477</v>
       </c>
       <c r="I21">
-        <v>0.00635</v>
+        <v>0.45092</v>
       </c>
       <c r="J21">
-        <v>0.0142</v>
+        <v>0.02011</v>
       </c>
       <c r="K21">
-        <v>0.0708</v>
+        <v>0.39624</v>
       </c>
       <c r="L21">
-        <v>0.01188</v>
+        <v>0.03243</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1282,291 +1297,291 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>0.57443</v>
+        <v>0.70417</v>
       </c>
       <c r="H22">
-        <v>0.03294</v>
+        <v>0.02704</v>
       </c>
       <c r="I22">
-        <v>0.02515</v>
+        <v>0.44088</v>
       </c>
       <c r="J22">
-        <v>0.02683</v>
+        <v>0.02766</v>
       </c>
       <c r="K22">
-        <v>0.07029000000000001</v>
+        <v>0.39424</v>
       </c>
       <c r="L22">
-        <v>0.01711</v>
+        <v>0.03236</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>0.7319</v>
+        <v>0.57987</v>
       </c>
       <c r="H23">
-        <v>0.0298</v>
+        <v>0.04012</v>
       </c>
       <c r="I23">
-        <v>0.47923</v>
+        <v>0.06952</v>
       </c>
       <c r="J23">
-        <v>0.01918</v>
+        <v>0.03958</v>
       </c>
       <c r="K23">
-        <v>0.42611</v>
+        <v>0.0696</v>
       </c>
       <c r="L23">
-        <v>0.04311</v>
+        <v>0.01616</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G24">
-        <v>0.59578</v>
+        <v>0.5995</v>
       </c>
       <c r="H24">
-        <v>0.01964</v>
+        <v>0.0349</v>
       </c>
       <c r="I24">
-        <v>0.04973</v>
+        <v>0.00635</v>
       </c>
       <c r="J24">
-        <v>0.05004</v>
+        <v>0.0142</v>
       </c>
       <c r="K24">
-        <v>0.07552</v>
+        <v>0.0708</v>
       </c>
       <c r="L24">
-        <v>0.01419</v>
+        <v>0.01188</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G25">
-        <v>0.60568</v>
+        <v>0.57443</v>
       </c>
       <c r="H25">
-        <v>0.03076</v>
+        <v>0.03294</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02515</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02683</v>
       </c>
       <c r="K25">
-        <v>0.07179000000000001</v>
+        <v>0.07029000000000001</v>
       </c>
       <c r="L25">
-        <v>0.01327</v>
+        <v>0.01711</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G26">
-        <v>0.61878</v>
+        <v>0.7180299999999999</v>
       </c>
       <c r="H26">
-        <v>0.03865</v>
+        <v>0.02289</v>
       </c>
       <c r="I26">
-        <v>0.01915</v>
+        <v>0.46192</v>
       </c>
       <c r="J26">
-        <v>0.02845</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="K26">
-        <v>0.0862</v>
+        <v>0.41208</v>
       </c>
       <c r="L26">
-        <v>0.01857</v>
+        <v>0.04028</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G27">
-        <v>0.67981</v>
+        <v>0.7319</v>
       </c>
       <c r="H27">
-        <v>0.0213</v>
+        <v>0.0298</v>
       </c>
       <c r="I27">
-        <v>0.13405</v>
+        <v>0.47923</v>
       </c>
       <c r="J27">
-        <v>0.01479</v>
+        <v>0.01918</v>
       </c>
       <c r="K27">
-        <v>0.10318</v>
+        <v>0.42611</v>
       </c>
       <c r="L27">
-        <v>0.02775</v>
+        <v>0.04311</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G28">
-        <v>0.60984</v>
+        <v>0.59578</v>
       </c>
       <c r="H28">
-        <v>0.03355</v>
+        <v>0.01964</v>
       </c>
       <c r="I28">
-        <v>0.11549</v>
+        <v>0.04973</v>
       </c>
       <c r="J28">
-        <v>0.03084</v>
+        <v>0.05004</v>
       </c>
       <c r="K28">
-        <v>0.07003</v>
+        <v>0.07552</v>
       </c>
       <c r="L28">
-        <v>0.01483</v>
+        <v>0.01419</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>0.57402</v>
+        <v>0.60568</v>
       </c>
       <c r="H29">
-        <v>0.02525</v>
+        <v>0.03076</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1575,150 +1590,150 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.06231</v>
+        <v>0.07179000000000001</v>
       </c>
       <c r="L29">
-        <v>0.01063</v>
+        <v>0.01327</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>0.58109</v>
+        <v>0.61878</v>
       </c>
       <c r="H30">
-        <v>0.04073</v>
+        <v>0.03865</v>
       </c>
       <c r="I30">
-        <v>0.07325</v>
+        <v>0.01915</v>
       </c>
       <c r="J30">
-        <v>0.03109</v>
+        <v>0.02845</v>
       </c>
       <c r="K30">
-        <v>0.06689000000000001</v>
+        <v>0.0862</v>
       </c>
       <c r="L30">
-        <v>0.01093</v>
+        <v>0.01857</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G31">
-        <v>0.6948</v>
+        <v>0.67981</v>
       </c>
       <c r="H31">
-        <v>0.02545</v>
+        <v>0.0213</v>
       </c>
       <c r="I31">
-        <v>0.14155</v>
+        <v>0.13405</v>
       </c>
       <c r="J31">
-        <v>0.02126</v>
+        <v>0.01479</v>
       </c>
       <c r="K31">
-        <v>0.11364</v>
+        <v>0.10318</v>
       </c>
       <c r="L31">
-        <v>0.01657</v>
+        <v>0.02775</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G32">
-        <v>0.62422</v>
+        <v>0.60984</v>
       </c>
       <c r="H32">
-        <v>0.05069</v>
+        <v>0.03355</v>
       </c>
       <c r="I32">
-        <v>0.12374</v>
+        <v>0.11549</v>
       </c>
       <c r="J32">
-        <v>0.01873</v>
+        <v>0.03084</v>
       </c>
       <c r="K32">
-        <v>0.07872999999999999</v>
+        <v>0.07003</v>
       </c>
       <c r="L32">
-        <v>0.01052</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>0.61683</v>
+        <v>0.57402</v>
       </c>
       <c r="H33">
-        <v>0.02626</v>
+        <v>0.02525</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1727,150 +1742,150 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0.07756</v>
+        <v>0.06231</v>
       </c>
       <c r="L33">
-        <v>0.01679</v>
+        <v>0.01063</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>0.60356</v>
+        <v>0.58109</v>
       </c>
       <c r="H34">
-        <v>0.05654</v>
+        <v>0.04073</v>
       </c>
       <c r="I34">
-        <v>0.0646</v>
+        <v>0.07325</v>
       </c>
       <c r="J34">
-        <v>0.04685</v>
+        <v>0.03109</v>
       </c>
       <c r="K34">
-        <v>0.06992</v>
+        <v>0.06689000000000001</v>
       </c>
       <c r="L34">
-        <v>0.01229</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G35">
-        <v>0.66995</v>
+        <v>0.6948</v>
       </c>
       <c r="H35">
-        <v>0.04045</v>
+        <v>0.02545</v>
       </c>
       <c r="I35">
-        <v>0.13431</v>
+        <v>0.14155</v>
       </c>
       <c r="J35">
-        <v>0.01676</v>
+        <v>0.02126</v>
       </c>
       <c r="K35">
-        <v>0.11073</v>
+        <v>0.11364</v>
       </c>
       <c r="L35">
-        <v>0.03643</v>
+        <v>0.01657</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G36">
-        <v>0.60504</v>
+        <v>0.62422</v>
       </c>
       <c r="H36">
-        <v>0.01306</v>
+        <v>0.05069</v>
       </c>
       <c r="I36">
-        <v>0.10368</v>
+        <v>0.12374</v>
       </c>
       <c r="J36">
-        <v>0.02518</v>
+        <v>0.01873</v>
       </c>
       <c r="K36">
-        <v>0.07393</v>
+        <v>0.07872999999999999</v>
       </c>
       <c r="L36">
-        <v>0.0127</v>
+        <v>0.01052</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G37">
-        <v>0.59689</v>
+        <v>0.61683</v>
       </c>
       <c r="H37">
-        <v>0.0287</v>
+        <v>0.02626</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1879,150 +1894,150 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.06827</v>
+        <v>0.07756</v>
       </c>
       <c r="L37">
-        <v>0.01361</v>
+        <v>0.01679</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>0.61077</v>
+        <v>0.60356</v>
       </c>
       <c r="H38">
-        <v>0.01921</v>
+        <v>0.05654</v>
       </c>
       <c r="I38">
-        <v>0.01649</v>
+        <v>0.0646</v>
       </c>
       <c r="J38">
-        <v>0.02523</v>
+        <v>0.04685</v>
       </c>
       <c r="K38">
-        <v>0.06841999999999999</v>
+        <v>0.06992</v>
       </c>
       <c r="L38">
-        <v>0.008489999999999999</v>
+        <v>0.01229</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>0.66592</v>
+        <v>0.66995</v>
       </c>
       <c r="H39">
-        <v>0.03798</v>
+        <v>0.04045</v>
       </c>
       <c r="I39">
-        <v>0.13033</v>
+        <v>0.13431</v>
       </c>
       <c r="J39">
-        <v>0.01998</v>
+        <v>0.01676</v>
       </c>
       <c r="K39">
-        <v>0.10367</v>
+        <v>0.11073</v>
       </c>
       <c r="L39">
-        <v>0.02781</v>
+        <v>0.03643</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>0.63329</v>
+        <v>0.60504</v>
       </c>
       <c r="H40">
-        <v>0.02887</v>
+        <v>0.01306</v>
       </c>
       <c r="I40">
-        <v>0.11925</v>
+        <v>0.10368</v>
       </c>
       <c r="J40">
-        <v>0.02564</v>
+        <v>0.02518</v>
       </c>
       <c r="K40">
-        <v>0.07714</v>
+        <v>0.07393</v>
       </c>
       <c r="L40">
-        <v>0.01066</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G41">
-        <v>0.608</v>
+        <v>0.59689</v>
       </c>
       <c r="H41">
-        <v>0.03525</v>
+        <v>0.0287</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2031,83 +2046,86 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.07124</v>
+        <v>0.06827</v>
       </c>
       <c r="L41">
-        <v>0.01097</v>
+        <v>0.01361</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>0.59523</v>
+        <v>0.61077</v>
       </c>
       <c r="H42">
-        <v>0.04035</v>
+        <v>0.01921</v>
       </c>
       <c r="I42">
-        <v>0.01767</v>
+        <v>0.01649</v>
       </c>
       <c r="J42">
-        <v>0.0255</v>
+        <v>0.02523</v>
       </c>
       <c r="K42">
-        <v>0.07215000000000001</v>
+        <v>0.06841999999999999</v>
       </c>
       <c r="L42">
-        <v>0.01496</v>
+        <v>0.008489999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G43">
-        <v>0.82826</v>
+        <v>0.66592</v>
       </c>
       <c r="H43">
-        <v>0.03829</v>
+        <v>0.03798</v>
       </c>
       <c r="I43">
-        <v>0.5901</v>
+        <v>0.13033</v>
       </c>
       <c r="J43">
-        <v>0.02202</v>
+        <v>0.01998</v>
       </c>
       <c r="K43">
-        <v>0.56807</v>
+        <v>0.10367</v>
       </c>
       <c r="L43">
-        <v>0.0873</v>
+        <v>0.02781</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2115,34 +2133,37 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G44">
-        <v>0.83256</v>
+        <v>0.63329</v>
       </c>
       <c r="H44">
-        <v>0.02868</v>
+        <v>0.02887</v>
       </c>
       <c r="I44">
-        <v>0.5806</v>
+        <v>0.11925</v>
       </c>
       <c r="J44">
-        <v>0.01532</v>
+        <v>0.02564</v>
       </c>
       <c r="K44">
-        <v>0.59327</v>
+        <v>0.07714</v>
       </c>
       <c r="L44">
-        <v>0.05867</v>
+        <v>0.01066</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2150,34 +2171,37 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G45">
-        <v>0.80537</v>
+        <v>0.608</v>
       </c>
       <c r="H45">
-        <v>0.0354</v>
+        <v>0.03525</v>
       </c>
       <c r="I45">
-        <v>0.56757</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.02192</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0.54392</v>
+        <v>0.07124</v>
       </c>
       <c r="L45">
-        <v>0.05836</v>
+        <v>0.01097</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2185,209 +2209,212 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G46">
-        <v>0.8218299999999999</v>
+        <v>0.59523</v>
       </c>
       <c r="H46">
-        <v>0.04476</v>
+        <v>0.04035</v>
       </c>
       <c r="I46">
-        <v>0.56641</v>
+        <v>0.01767</v>
       </c>
       <c r="J46">
-        <v>0.03084</v>
+        <v>0.0255</v>
       </c>
       <c r="K46">
-        <v>0.58185</v>
+        <v>0.07215000000000001</v>
       </c>
       <c r="L46">
-        <v>0.06764000000000001</v>
+        <v>0.01496</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G47">
-        <v>0.82</v>
+        <v>0.82826</v>
       </c>
       <c r="H47">
-        <v>0.04298</v>
+        <v>0.03829</v>
       </c>
       <c r="I47">
-        <v>0.56135</v>
+        <v>0.5901</v>
       </c>
       <c r="J47">
-        <v>0.03736</v>
+        <v>0.02202</v>
       </c>
       <c r="K47">
-        <v>0.57605</v>
+        <v>0.56807</v>
       </c>
       <c r="L47">
-        <v>0.07585</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G48">
-        <v>0.80777</v>
+        <v>0.83256</v>
       </c>
       <c r="H48">
-        <v>0.03922</v>
+        <v>0.02868</v>
       </c>
       <c r="I48">
-        <v>0.56523</v>
+        <v>0.5806</v>
       </c>
       <c r="J48">
-        <v>0.02598</v>
+        <v>0.01532</v>
       </c>
       <c r="K48">
-        <v>0.55806</v>
+        <v>0.59327</v>
       </c>
       <c r="L48">
-        <v>0.05396</v>
+        <v>0.05867</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G49">
-        <v>0.82699</v>
+        <v>0.80537</v>
       </c>
       <c r="H49">
-        <v>0.03095</v>
+        <v>0.0354</v>
       </c>
       <c r="I49">
-        <v>0.57896</v>
+        <v>0.56757</v>
       </c>
       <c r="J49">
-        <v>0.03006</v>
+        <v>0.02192</v>
       </c>
       <c r="K49">
-        <v>0.58658</v>
+        <v>0.54392</v>
       </c>
       <c r="L49">
-        <v>0.06121</v>
+        <v>0.05836</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G50">
-        <v>0.81931</v>
+        <v>0.8218299999999999</v>
       </c>
       <c r="H50">
-        <v>0.02904</v>
+        <v>0.04476</v>
       </c>
       <c r="I50">
-        <v>0.57002</v>
+        <v>0.56641</v>
       </c>
       <c r="J50">
-        <v>0.01855</v>
+        <v>0.03084</v>
       </c>
       <c r="K50">
-        <v>0.57484</v>
+        <v>0.58185</v>
       </c>
       <c r="L50">
-        <v>0.05403</v>
+        <v>0.06764000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G51">
-        <v>0.80528</v>
+        <v>0.82</v>
       </c>
       <c r="H51">
-        <v>0.02608</v>
+        <v>0.04298</v>
       </c>
       <c r="I51">
-        <v>0.55102</v>
+        <v>0.56135</v>
       </c>
       <c r="J51">
-        <v>0.0181</v>
+        <v>0.03736</v>
       </c>
       <c r="K51">
-        <v>0.53848</v>
+        <v>0.57605</v>
       </c>
       <c r="L51">
-        <v>0.05875</v>
+        <v>0.07585</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2395,37 +2422,34 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G52">
-        <v>0.65829</v>
+        <v>0.80777</v>
       </c>
       <c r="H52">
-        <v>0.02191</v>
+        <v>0.03922</v>
       </c>
       <c r="I52">
-        <v>0.42075</v>
+        <v>0.56523</v>
       </c>
       <c r="J52">
-        <v>0.02069</v>
+        <v>0.02598</v>
       </c>
       <c r="K52">
-        <v>0.33395</v>
+        <v>0.55806</v>
       </c>
       <c r="L52">
-        <v>0.02405</v>
+        <v>0.05396</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2433,37 +2457,34 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>0.7421</v>
+        <v>0.82699</v>
       </c>
       <c r="H53">
-        <v>0.01955</v>
+        <v>0.03095</v>
       </c>
       <c r="I53">
-        <v>0.48765</v>
+        <v>0.57896</v>
       </c>
       <c r="J53">
-        <v>0.01409</v>
+        <v>0.03006</v>
       </c>
       <c r="K53">
-        <v>0.44269</v>
+        <v>0.58658</v>
       </c>
       <c r="L53">
-        <v>0.0146</v>
+        <v>0.06121</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2471,37 +2492,34 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G54">
-        <v>0.73875</v>
+        <v>0.81931</v>
       </c>
       <c r="H54">
-        <v>0.02976</v>
+        <v>0.02904</v>
       </c>
       <c r="I54">
-        <v>0.47975</v>
+        <v>0.57002</v>
       </c>
       <c r="J54">
-        <v>0.01717</v>
+        <v>0.01855</v>
       </c>
       <c r="K54">
-        <v>0.43672</v>
+        <v>0.57484</v>
       </c>
       <c r="L54">
-        <v>0.03026</v>
+        <v>0.05403</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2509,37 +2527,34 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>0.73095</v>
+        <v>0.80528</v>
       </c>
       <c r="H55">
-        <v>0.0259</v>
+        <v>0.02608</v>
       </c>
       <c r="I55">
-        <v>0.48995</v>
+        <v>0.55102</v>
       </c>
       <c r="J55">
-        <v>0.01804</v>
+        <v>0.0181</v>
       </c>
       <c r="K55">
-        <v>0.42323</v>
+        <v>0.53848</v>
       </c>
       <c r="L55">
-        <v>0.03919</v>
+        <v>0.05875</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2547,69 +2562,75 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G56">
-        <v>0.62226</v>
+        <v>0.64717</v>
       </c>
       <c r="H56">
-        <v>0.03342</v>
+        <v>0.02258</v>
       </c>
       <c r="I56">
-        <v>0.12743</v>
+        <v>0.40687</v>
       </c>
       <c r="J56">
-        <v>0.03899</v>
+        <v>0.01438</v>
       </c>
       <c r="K56">
-        <v>0.09931</v>
+        <v>0.32558</v>
       </c>
       <c r="L56">
-        <v>0.02378</v>
+        <v>0.03305</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G57">
-        <v>0.6469200000000001</v>
+        <v>0.65829</v>
       </c>
       <c r="H57">
-        <v>0.0404</v>
+        <v>0.02191</v>
       </c>
       <c r="I57">
-        <v>0.05951</v>
+        <v>0.42075</v>
       </c>
       <c r="J57">
-        <v>0.04581</v>
+        <v>0.02069</v>
       </c>
       <c r="K57">
-        <v>0.10417</v>
+        <v>0.33395</v>
       </c>
       <c r="L57">
-        <v>0.02724</v>
+        <v>0.02405</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2617,34 +2638,37 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G58">
-        <v>0.6093499999999999</v>
+        <v>0.74843</v>
       </c>
       <c r="H58">
-        <v>0.04806</v>
+        <v>0.02012</v>
       </c>
       <c r="I58">
-        <v>0.05156</v>
+        <v>0.48256</v>
       </c>
       <c r="J58">
-        <v>0.03819</v>
+        <v>0.01547</v>
       </c>
       <c r="K58">
-        <v>0.08823</v>
+        <v>0.45569</v>
       </c>
       <c r="L58">
-        <v>0.02342</v>
+        <v>0.02471</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2652,151 +2676,151 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G59">
-        <v>0.7166</v>
+        <v>0.7421</v>
       </c>
       <c r="H59">
-        <v>0.05151</v>
+        <v>0.01955</v>
       </c>
       <c r="I59">
-        <v>0.14764</v>
+        <v>0.48765</v>
       </c>
       <c r="J59">
-        <v>0.02962</v>
+        <v>0.01409</v>
       </c>
       <c r="K59">
-        <v>0.14787</v>
+        <v>0.44269</v>
       </c>
       <c r="L59">
-        <v>0.03711</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G60">
-        <v>0.77944</v>
+        <v>0.73835</v>
       </c>
       <c r="H60">
-        <v>0.04281</v>
+        <v>0.01717</v>
       </c>
       <c r="I60">
-        <v>0.52946</v>
+        <v>0.47685</v>
       </c>
       <c r="J60">
-        <v>0.0322</v>
+        <v>0.01099</v>
       </c>
       <c r="K60">
-        <v>0.5104</v>
+        <v>0.43717</v>
       </c>
       <c r="L60">
-        <v>0.07238</v>
+        <v>0.00742</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G61">
-        <v>0.77886</v>
+        <v>0.73875</v>
       </c>
       <c r="H61">
-        <v>0.03955</v>
+        <v>0.02976</v>
       </c>
       <c r="I61">
-        <v>0.41459</v>
+        <v>0.47975</v>
       </c>
       <c r="J61">
-        <v>0.09075</v>
+        <v>0.01717</v>
       </c>
       <c r="K61">
-        <v>0.50708</v>
+        <v>0.43672</v>
       </c>
       <c r="L61">
-        <v>0.06408</v>
+        <v>0.03026</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G62">
-        <v>0.76833</v>
+        <v>0.7341299999999999</v>
       </c>
       <c r="H62">
-        <v>0.0446</v>
+        <v>0.03541</v>
       </c>
       <c r="I62">
-        <v>0.51981</v>
+        <v>0.4834</v>
       </c>
       <c r="J62">
-        <v>0.03954</v>
+        <v>0.0353</v>
       </c>
       <c r="K62">
-        <v>0.49615</v>
+        <v>0.4398</v>
       </c>
       <c r="L62">
-        <v>0.06682</v>
+        <v>0.04298</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2804,37 +2828,37 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G63">
-        <v>0.71675</v>
+        <v>0.73095</v>
       </c>
       <c r="H63">
-        <v>0.06246</v>
+        <v>0.0259</v>
       </c>
       <c r="I63">
-        <v>0.16508</v>
+        <v>0.48995</v>
       </c>
       <c r="J63">
-        <v>0.03369</v>
+        <v>0.01804</v>
       </c>
       <c r="K63">
-        <v>0.17496</v>
+        <v>0.42323</v>
       </c>
       <c r="L63">
-        <v>0.08239</v>
+        <v>0.03919</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2842,37 +2866,34 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>0.78948</v>
+        <v>0.62226</v>
       </c>
       <c r="H64">
-        <v>0.03515</v>
+        <v>0.03342</v>
       </c>
       <c r="I64">
-        <v>0.53533</v>
+        <v>0.12743</v>
       </c>
       <c r="J64">
-        <v>0.04242</v>
+        <v>0.03899</v>
       </c>
       <c r="K64">
-        <v>0.52525</v>
+        <v>0.09931</v>
       </c>
       <c r="L64">
-        <v>0.06338000000000001</v>
+        <v>0.02378</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2880,37 +2901,34 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G65">
-        <v>0.7889699999999999</v>
+        <v>0.6469200000000001</v>
       </c>
       <c r="H65">
-        <v>0.03844</v>
+        <v>0.0404</v>
       </c>
       <c r="I65">
-        <v>0.40059</v>
+        <v>0.05951</v>
       </c>
       <c r="J65">
-        <v>0.06094</v>
+        <v>0.04581</v>
       </c>
       <c r="K65">
-        <v>0.49976</v>
+        <v>0.10417</v>
       </c>
       <c r="L65">
-        <v>0.06037</v>
+        <v>0.02724</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2918,341 +2936,338 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G66">
-        <v>0.78873</v>
+        <v>0.6093499999999999</v>
       </c>
       <c r="H66">
-        <v>0.03463</v>
+        <v>0.04806</v>
       </c>
       <c r="I66">
-        <v>0.52106</v>
+        <v>0.05156</v>
       </c>
       <c r="J66">
-        <v>0.03876</v>
+        <v>0.03819</v>
       </c>
       <c r="K66">
-        <v>0.53576</v>
+        <v>0.08823</v>
       </c>
       <c r="L66">
-        <v>0.05353</v>
+        <v>0.02342</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G67">
-        <v>0.72459</v>
+        <v>0.7166</v>
       </c>
       <c r="H67">
-        <v>0.06279999999999999</v>
+        <v>0.05151</v>
       </c>
       <c r="I67">
-        <v>0.16273</v>
+        <v>0.14764</v>
       </c>
       <c r="J67">
-        <v>0.0231</v>
+        <v>0.02962</v>
       </c>
       <c r="K67">
-        <v>0.18457</v>
+        <v>0.14787</v>
       </c>
       <c r="L67">
-        <v>0.07489</v>
+        <v>0.03711</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G68">
-        <v>0.78944</v>
+        <v>0.77944</v>
       </c>
       <c r="H68">
-        <v>0.03132</v>
+        <v>0.04281</v>
       </c>
       <c r="I68">
-        <v>0.5345</v>
+        <v>0.52946</v>
       </c>
       <c r="J68">
-        <v>0.04213</v>
+        <v>0.0322</v>
       </c>
       <c r="K68">
-        <v>0.5281</v>
+        <v>0.5104</v>
       </c>
       <c r="L68">
-        <v>0.04975</v>
+        <v>0.07238</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G69">
-        <v>0.7871</v>
+        <v>0.77886</v>
       </c>
       <c r="H69">
-        <v>0.03446</v>
+        <v>0.03955</v>
       </c>
       <c r="I69">
-        <v>0.42807</v>
+        <v>0.41459</v>
       </c>
       <c r="J69">
-        <v>0.06365999999999999</v>
+        <v>0.09075</v>
       </c>
       <c r="K69">
-        <v>0.49375</v>
+        <v>0.50708</v>
       </c>
       <c r="L69">
-        <v>0.06259000000000001</v>
+        <v>0.06408</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G70">
-        <v>0.78553</v>
+        <v>0.76833</v>
       </c>
       <c r="H70">
-        <v>0.02804</v>
+        <v>0.0446</v>
       </c>
       <c r="I70">
-        <v>0.52205</v>
+        <v>0.51981</v>
       </c>
       <c r="J70">
-        <v>0.04576</v>
+        <v>0.03954</v>
       </c>
       <c r="K70">
-        <v>0.5289700000000001</v>
+        <v>0.49615</v>
       </c>
       <c r="L70">
-        <v>0.04239</v>
+        <v>0.06682</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E71">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G71">
-        <v>0.73087</v>
+        <v>0.71675</v>
       </c>
       <c r="H71">
-        <v>0.05657</v>
+        <v>0.06246</v>
       </c>
       <c r="I71">
-        <v>0.15528</v>
+        <v>0.16508</v>
       </c>
       <c r="J71">
-        <v>0.02784</v>
+        <v>0.03369</v>
       </c>
       <c r="K71">
-        <v>0.16829</v>
+        <v>0.17496</v>
       </c>
       <c r="L71">
-        <v>0.05706</v>
+        <v>0.08239</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E72">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G72">
-        <v>0.79231</v>
+        <v>0.78948</v>
       </c>
       <c r="H72">
-        <v>0.04086</v>
+        <v>0.03515</v>
       </c>
       <c r="I72">
-        <v>0.53979</v>
+        <v>0.53533</v>
       </c>
       <c r="J72">
-        <v>0.0459</v>
+        <v>0.04242</v>
       </c>
       <c r="K72">
-        <v>0.52801</v>
+        <v>0.52525</v>
       </c>
       <c r="L72">
-        <v>0.06279</v>
+        <v>0.06338000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E73">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G73">
-        <v>0.78713</v>
+        <v>0.7889699999999999</v>
       </c>
       <c r="H73">
-        <v>0.03382</v>
+        <v>0.03844</v>
       </c>
       <c r="I73">
-        <v>0.43796</v>
+        <v>0.40059</v>
       </c>
       <c r="J73">
-        <v>0.06011</v>
+        <v>0.06094</v>
       </c>
       <c r="K73">
-        <v>0.49524</v>
+        <v>0.49976</v>
       </c>
       <c r="L73">
-        <v>0.05486</v>
+        <v>0.06037</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G74">
-        <v>0.7883599999999999</v>
+        <v>0.78873</v>
       </c>
       <c r="H74">
-        <v>0.02889</v>
+        <v>0.03463</v>
       </c>
       <c r="I74">
-        <v>0.52728</v>
+        <v>0.52106</v>
       </c>
       <c r="J74">
-        <v>0.03306</v>
+        <v>0.03876</v>
       </c>
       <c r="K74">
-        <v>0.52362</v>
+        <v>0.53576</v>
       </c>
       <c r="L74">
-        <v>0.04066</v>
+        <v>0.05353</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3260,139 +3275,151 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G75">
-        <v>0.7236900000000001</v>
+        <v>0.72459</v>
       </c>
       <c r="H75">
-        <v>0.05268</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="I75">
-        <v>0.21065</v>
+        <v>0.16273</v>
       </c>
       <c r="J75">
-        <v>0.0478</v>
+        <v>0.0231</v>
       </c>
       <c r="K75">
-        <v>0.18534</v>
+        <v>0.18457</v>
       </c>
       <c r="L75">
-        <v>0.06537</v>
+        <v>0.07489</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G76">
-        <v>0.7121499999999999</v>
+        <v>0.78944</v>
       </c>
       <c r="H76">
-        <v>0.04982</v>
+        <v>0.03132</v>
       </c>
       <c r="I76">
-        <v>0.18342</v>
+        <v>0.5345</v>
       </c>
       <c r="J76">
-        <v>0.04049</v>
+        <v>0.04213</v>
       </c>
       <c r="K76">
-        <v>0.16148</v>
+        <v>0.5281</v>
       </c>
       <c r="L76">
-        <v>0.04638</v>
+        <v>0.04975</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G77">
-        <v>0.68491</v>
+        <v>0.7871</v>
       </c>
       <c r="H77">
-        <v>0.04896</v>
+        <v>0.03446</v>
       </c>
       <c r="I77">
-        <v>0.17069</v>
+        <v>0.42807</v>
       </c>
       <c r="J77">
-        <v>0.04687</v>
+        <v>0.06365999999999999</v>
       </c>
       <c r="K77">
-        <v>0.17377</v>
+        <v>0.49375</v>
       </c>
       <c r="L77">
-        <v>0.0512</v>
+        <v>0.06259000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G78">
-        <v>0.70778</v>
+        <v>0.78553</v>
       </c>
       <c r="H78">
-        <v>0.06510000000000001</v>
+        <v>0.02804</v>
       </c>
       <c r="I78">
-        <v>0.23299</v>
+        <v>0.52205</v>
       </c>
       <c r="J78">
-        <v>0.08386</v>
+        <v>0.04576</v>
       </c>
       <c r="K78">
-        <v>0.18771</v>
+        <v>0.5289700000000001</v>
       </c>
       <c r="L78">
-        <v>0.06898</v>
+        <v>0.04239</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3400,326 +3427,326 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E79">
+        <v>1000</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G79">
-        <v>0.70933</v>
+        <v>0.73087</v>
       </c>
       <c r="H79">
-        <v>0.05231</v>
+        <v>0.05657</v>
       </c>
       <c r="I79">
-        <v>0.24619</v>
+        <v>0.15528</v>
       </c>
       <c r="J79">
-        <v>0.07764</v>
+        <v>0.02784</v>
       </c>
       <c r="K79">
-        <v>0.18579</v>
+        <v>0.16829</v>
       </c>
       <c r="L79">
-        <v>0.06081</v>
+        <v>0.05706</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E80">
+        <v>1000</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G80">
-        <v>0.6889999999999999</v>
+        <v>0.79231</v>
       </c>
       <c r="H80">
-        <v>0.05939</v>
+        <v>0.04086</v>
       </c>
       <c r="I80">
-        <v>0.19944</v>
+        <v>0.53979</v>
       </c>
       <c r="J80">
-        <v>0.06748</v>
+        <v>0.0459</v>
       </c>
       <c r="K80">
-        <v>0.17674</v>
+        <v>0.52801</v>
       </c>
       <c r="L80">
-        <v>0.05542</v>
+        <v>0.06279</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E81">
+        <v>1000</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G81">
-        <v>0.68032</v>
+        <v>0.78713</v>
       </c>
       <c r="H81">
-        <v>0.0557</v>
+        <v>0.03382</v>
       </c>
       <c r="I81">
-        <v>0.17869</v>
+        <v>0.43796</v>
       </c>
       <c r="J81">
-        <v>0.02799</v>
+        <v>0.06011</v>
       </c>
       <c r="K81">
-        <v>0.14699</v>
+        <v>0.49524</v>
       </c>
       <c r="L81">
-        <v>0.06453</v>
+        <v>0.05486</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G82">
-        <v>0.6694099999999999</v>
+        <v>0.7883599999999999</v>
       </c>
       <c r="H82">
-        <v>0.05605</v>
+        <v>0.02889</v>
       </c>
       <c r="I82">
-        <v>0.16735</v>
+        <v>0.52728</v>
       </c>
       <c r="J82">
-        <v>0.05272</v>
+        <v>0.03306</v>
       </c>
       <c r="K82">
-        <v>0.14146</v>
+        <v>0.52362</v>
       </c>
       <c r="L82">
-        <v>0.04109</v>
+        <v>0.04066</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G83">
-        <v>0.67815</v>
+        <v>0.7236900000000001</v>
       </c>
       <c r="H83">
-        <v>0.04598</v>
+        <v>0.05268</v>
       </c>
       <c r="I83">
-        <v>0.17727</v>
+        <v>0.21065</v>
       </c>
       <c r="J83">
-        <v>0.04643</v>
+        <v>0.0478</v>
       </c>
       <c r="K83">
-        <v>0.14615</v>
+        <v>0.18534</v>
       </c>
       <c r="L83">
-        <v>0.0473</v>
+        <v>0.06537</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84">
-        <v>0.60454</v>
+        <v>0.7121499999999999</v>
       </c>
       <c r="H84">
-        <v>0.03377</v>
+        <v>0.04982</v>
       </c>
       <c r="I84">
-        <v>0.11429</v>
+        <v>0.18342</v>
       </c>
       <c r="J84">
-        <v>0.01418</v>
+        <v>0.04049</v>
       </c>
       <c r="K84">
-        <v>0.11744</v>
+        <v>0.16148</v>
       </c>
       <c r="L84">
-        <v>0.05722</v>
+        <v>0.04638</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>0.63308</v>
+        <v>0.68491</v>
       </c>
       <c r="H85">
-        <v>0.03975</v>
+        <v>0.04896</v>
       </c>
       <c r="I85">
-        <v>0.11974</v>
+        <v>0.17069</v>
       </c>
       <c r="J85">
-        <v>0.01397</v>
+        <v>0.04687</v>
       </c>
       <c r="K85">
-        <v>0.11286</v>
+        <v>0.17377</v>
       </c>
       <c r="L85">
-        <v>0.06324</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86">
-        <v>0.65942</v>
+        <v>0.70778</v>
       </c>
       <c r="H86">
-        <v>0.04526</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="I86">
-        <v>0.12988</v>
+        <v>0.23299</v>
       </c>
       <c r="J86">
-        <v>0.01601</v>
+        <v>0.08386</v>
       </c>
       <c r="K86">
-        <v>0.11825</v>
+        <v>0.18771</v>
       </c>
       <c r="L86">
-        <v>0.04374</v>
+        <v>0.06898</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G87">
-        <v>0.66414</v>
+        <v>0.70933</v>
       </c>
       <c r="H87">
-        <v>0.04488</v>
+        <v>0.05231</v>
       </c>
       <c r="I87">
-        <v>0.13465</v>
+        <v>0.24619</v>
       </c>
       <c r="J87">
-        <v>0.03424</v>
+        <v>0.07764</v>
       </c>
       <c r="K87">
-        <v>0.12135</v>
+        <v>0.18579</v>
       </c>
       <c r="L87">
-        <v>0.05436</v>
+        <v>0.06081</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3727,34 +3754,34 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G88">
-        <v>0.58163</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H88">
-        <v>0.03839</v>
+        <v>0.05939</v>
       </c>
       <c r="I88">
-        <v>0.06609</v>
+        <v>0.19944</v>
       </c>
       <c r="J88">
-        <v>0.04335</v>
+        <v>0.06748</v>
       </c>
       <c r="K88">
-        <v>0.0702</v>
+        <v>0.17674</v>
       </c>
       <c r="L88">
-        <v>0.0134</v>
+        <v>0.05542</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3762,34 +3789,34 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G89">
-        <v>0.58804</v>
+        <v>0.68032</v>
       </c>
       <c r="H89">
-        <v>0.03824</v>
+        <v>0.0557</v>
       </c>
       <c r="I89">
-        <v>0.00978</v>
+        <v>0.17869</v>
       </c>
       <c r="J89">
-        <v>0.02213</v>
+        <v>0.02799</v>
       </c>
       <c r="K89">
-        <v>0.06807000000000001</v>
+        <v>0.14699</v>
       </c>
       <c r="L89">
-        <v>0.01098</v>
+        <v>0.06453</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3797,110 +3824,107 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G90">
-        <v>0.57889</v>
+        <v>0.6694099999999999</v>
       </c>
       <c r="H90">
-        <v>0.04498</v>
+        <v>0.05605</v>
       </c>
       <c r="I90">
-        <v>0.03257</v>
+        <v>0.16735</v>
       </c>
       <c r="J90">
-        <v>0.03155</v>
+        <v>0.05272</v>
       </c>
       <c r="K90">
-        <v>0.07126</v>
+        <v>0.14146</v>
       </c>
       <c r="L90">
-        <v>0.01743</v>
+        <v>0.04109</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G91">
-        <v>0.6645799999999999</v>
+        <v>0.67815</v>
       </c>
       <c r="H91">
-        <v>0.01255</v>
+        <v>0.04598</v>
       </c>
       <c r="I91">
-        <v>0.13228</v>
+        <v>0.17727</v>
       </c>
       <c r="J91">
-        <v>0.01081</v>
+        <v>0.04643</v>
       </c>
       <c r="K91">
-        <v>0.0974</v>
+        <v>0.14615</v>
       </c>
       <c r="L91">
-        <v>0.01643</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E92">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G92">
-        <v>0.58699</v>
+        <v>0.57843</v>
       </c>
       <c r="H92">
-        <v>0.03284</v>
+        <v>0.06358</v>
       </c>
       <c r="I92">
-        <v>0.10708</v>
+        <v>0.10957</v>
       </c>
       <c r="J92">
-        <v>0.01531</v>
+        <v>0.02877</v>
       </c>
       <c r="K92">
-        <v>0.06510000000000001</v>
+        <v>0.07962</v>
       </c>
       <c r="L92">
-        <v>0.00686</v>
+        <v>0.03254</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3908,151 +3932,151 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G93">
-        <v>0.59046</v>
+        <v>0.60454</v>
       </c>
       <c r="H93">
-        <v>0.03487</v>
+        <v>0.03377</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.11429</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.01418</v>
       </c>
       <c r="K93">
-        <v>0.06660000000000001</v>
+        <v>0.11744</v>
       </c>
       <c r="L93">
-        <v>0.01046</v>
+        <v>0.05722</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G94">
-        <v>0.57459</v>
+        <v>0.62615</v>
       </c>
       <c r="H94">
-        <v>0.03239</v>
+        <v>0.04903</v>
       </c>
       <c r="I94">
-        <v>0.07854</v>
+        <v>0.11879</v>
       </c>
       <c r="J94">
-        <v>0.02908</v>
+        <v>0.01867</v>
       </c>
       <c r="K94">
-        <v>0.06586</v>
+        <v>0.10583</v>
       </c>
       <c r="L94">
-        <v>0.00634</v>
+        <v>0.05883</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E95">
         <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G95">
-        <v>0.67295</v>
+        <v>0.63308</v>
       </c>
       <c r="H95">
-        <v>0.03352</v>
+        <v>0.03975</v>
       </c>
       <c r="I95">
-        <v>0.14135</v>
+        <v>0.11974</v>
       </c>
       <c r="J95">
-        <v>0.02443</v>
+        <v>0.01397</v>
       </c>
       <c r="K95">
-        <v>0.10715</v>
+        <v>0.11286</v>
       </c>
       <c r="L95">
-        <v>0.02329</v>
+        <v>0.06324</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G96">
-        <v>0.60646</v>
+        <v>0.6337</v>
       </c>
       <c r="H96">
-        <v>0.01493</v>
+        <v>0.04014</v>
       </c>
       <c r="I96">
-        <v>0.09616</v>
+        <v>0.12414</v>
       </c>
       <c r="J96">
-        <v>0.01447</v>
+        <v>0.02647</v>
       </c>
       <c r="K96">
-        <v>0.06851</v>
+        <v>0.11342</v>
       </c>
       <c r="L96">
-        <v>0.00472</v>
+        <v>0.04549</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4060,329 +4084,320 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G97">
-        <v>0.61312</v>
+        <v>0.65942</v>
       </c>
       <c r="H97">
-        <v>0.02694</v>
+        <v>0.04526</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.12988</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.01601</v>
       </c>
       <c r="K97">
-        <v>0.06753000000000001</v>
+        <v>0.11825</v>
       </c>
       <c r="L97">
-        <v>0.00584</v>
+        <v>0.04374</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G98">
-        <v>0.61636</v>
+        <v>0.6543</v>
       </c>
       <c r="H98">
-        <v>0.0516</v>
+        <v>0.03746</v>
       </c>
       <c r="I98">
-        <v>0.03723</v>
+        <v>0.13031</v>
       </c>
       <c r="J98">
-        <v>0.02478</v>
+        <v>0.01987</v>
       </c>
       <c r="K98">
-        <v>0.07174999999999999</v>
+        <v>0.11575</v>
       </c>
       <c r="L98">
-        <v>0.01409</v>
+        <v>0.04749</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E99">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G99">
-        <v>0.66478</v>
+        <v>0.66414</v>
       </c>
       <c r="H99">
-        <v>0.04564</v>
+        <v>0.04488</v>
       </c>
       <c r="I99">
-        <v>0.13092</v>
+        <v>0.13465</v>
       </c>
       <c r="J99">
-        <v>0.01747</v>
+        <v>0.03424</v>
       </c>
       <c r="K99">
-        <v>0.10436</v>
+        <v>0.12135</v>
       </c>
       <c r="L99">
-        <v>0.0275</v>
+        <v>0.05436</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G100">
-        <v>0.61498</v>
+        <v>0.58163</v>
       </c>
       <c r="H100">
-        <v>0.02846</v>
+        <v>0.03839</v>
       </c>
       <c r="I100">
-        <v>0.11883</v>
+        <v>0.06609</v>
       </c>
       <c r="J100">
-        <v>0.04015</v>
+        <v>0.04335</v>
       </c>
       <c r="K100">
-        <v>0.07911</v>
+        <v>0.0702</v>
       </c>
       <c r="L100">
-        <v>0.0123</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G101">
-        <v>0.61136</v>
+        <v>0.58804</v>
       </c>
       <c r="H101">
-        <v>0.02356</v>
+        <v>0.03824</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.00978</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.02213</v>
       </c>
       <c r="K101">
-        <v>0.06544999999999999</v>
+        <v>0.06807000000000001</v>
       </c>
       <c r="L101">
-        <v>0.00661</v>
+        <v>0.01098</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G102">
-        <v>0.62903</v>
+        <v>0.57889</v>
       </c>
       <c r="H102">
-        <v>0.02306</v>
+        <v>0.04498</v>
       </c>
       <c r="I102">
-        <v>0.07177</v>
+        <v>0.03257</v>
       </c>
       <c r="J102">
-        <v>0.05144</v>
+        <v>0.03155</v>
       </c>
       <c r="K102">
-        <v>0.07969</v>
+        <v>0.07126</v>
       </c>
       <c r="L102">
-        <v>0.01329</v>
+        <v>0.01743</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G103">
-        <v>0.66548</v>
+        <v>0.6645799999999999</v>
       </c>
       <c r="H103">
-        <v>0.04621</v>
+        <v>0.01255</v>
       </c>
       <c r="I103">
-        <v>0.13147</v>
+        <v>0.13228</v>
       </c>
       <c r="J103">
-        <v>0.02325</v>
+        <v>0.01081</v>
       </c>
       <c r="K103">
-        <v>0.10958</v>
+        <v>0.0974</v>
       </c>
       <c r="L103">
-        <v>0.02864</v>
+        <v>0.01643</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E104">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>0.61613</v>
+        <v>0.58699</v>
       </c>
       <c r="H104">
-        <v>0.02657</v>
+        <v>0.03284</v>
       </c>
       <c r="I104">
-        <v>0.08562</v>
+        <v>0.10708</v>
       </c>
       <c r="J104">
-        <v>0.02499</v>
+        <v>0.01531</v>
       </c>
       <c r="K104">
-        <v>0.07321</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="L104">
-        <v>0.00893</v>
+        <v>0.00686</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E105">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G105">
-        <v>0.60873</v>
+        <v>0.59046</v>
       </c>
       <c r="H105">
-        <v>0.02017</v>
+        <v>0.03487</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4391,620 +4406,644 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0.06906</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="L105">
-        <v>0.00797</v>
+        <v>0.01046</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E106">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G106">
-        <v>0.62209</v>
+        <v>0.57459</v>
       </c>
       <c r="H106">
-        <v>0.046</v>
+        <v>0.03239</v>
       </c>
       <c r="I106">
-        <v>0.02997</v>
+        <v>0.07854</v>
       </c>
       <c r="J106">
-        <v>0.02297</v>
+        <v>0.02908</v>
       </c>
       <c r="K106">
-        <v>0.07031999999999999</v>
+        <v>0.06586</v>
       </c>
       <c r="L106">
-        <v>0.00397</v>
+        <v>0.00634</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G107">
-        <v>0.73583</v>
+        <v>0.67295</v>
       </c>
       <c r="H107">
-        <v>0.03999</v>
+        <v>0.03352</v>
       </c>
       <c r="I107">
-        <v>0.20407</v>
+        <v>0.14135</v>
       </c>
       <c r="J107">
-        <v>0.03798</v>
+        <v>0.02443</v>
       </c>
       <c r="K107">
-        <v>0.18617</v>
+        <v>0.10715</v>
       </c>
       <c r="L107">
-        <v>0.05582</v>
+        <v>0.02329</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G108">
-        <v>0.74716</v>
+        <v>0.60646</v>
       </c>
       <c r="H108">
-        <v>0.03524</v>
+        <v>0.01493</v>
       </c>
       <c r="I108">
-        <v>0.20903</v>
+        <v>0.09616</v>
       </c>
       <c r="J108">
-        <v>0.0383</v>
+        <v>0.01447</v>
       </c>
       <c r="K108">
-        <v>0.17457</v>
+        <v>0.06851</v>
       </c>
       <c r="L108">
-        <v>0.04519</v>
+        <v>0.00472</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E109">
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G109">
-        <v>0.71548</v>
+        <v>0.61312</v>
       </c>
       <c r="H109">
-        <v>0.04673</v>
+        <v>0.02694</v>
       </c>
       <c r="I109">
-        <v>0.20364</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0.03132</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>0.17391</v>
+        <v>0.06753000000000001</v>
       </c>
       <c r="L109">
-        <v>0.05062</v>
+        <v>0.00584</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G110">
-        <v>0.74532</v>
+        <v>0.61636</v>
       </c>
       <c r="H110">
-        <v>0.04255</v>
+        <v>0.0516</v>
       </c>
       <c r="I110">
-        <v>0.22527</v>
+        <v>0.03723</v>
       </c>
       <c r="J110">
-        <v>0.02929</v>
+        <v>0.02478</v>
       </c>
       <c r="K110">
-        <v>0.16888</v>
+        <v>0.07174999999999999</v>
       </c>
       <c r="L110">
-        <v>0.04746</v>
+        <v>0.01409</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G111">
-        <v>0.75079</v>
+        <v>0.66478</v>
       </c>
       <c r="H111">
-        <v>0.03367</v>
+        <v>0.04564</v>
       </c>
       <c r="I111">
-        <v>0.21888</v>
+        <v>0.13092</v>
       </c>
       <c r="J111">
-        <v>0.05374</v>
+        <v>0.01747</v>
       </c>
       <c r="K111">
-        <v>0.17887</v>
+        <v>0.10436</v>
       </c>
       <c r="L111">
-        <v>0.07066</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G112">
-        <v>0.73049</v>
+        <v>0.61498</v>
       </c>
       <c r="H112">
-        <v>0.04671</v>
+        <v>0.02846</v>
       </c>
       <c r="I112">
-        <v>0.21537</v>
+        <v>0.11883</v>
       </c>
       <c r="J112">
-        <v>0.03661</v>
+        <v>0.04015</v>
       </c>
       <c r="K112">
-        <v>0.1674</v>
+        <v>0.07911</v>
       </c>
       <c r="L112">
-        <v>0.04602</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G113">
-        <v>0.72072</v>
+        <v>0.61136</v>
       </c>
       <c r="H113">
-        <v>0.03095</v>
+        <v>0.02356</v>
       </c>
       <c r="I113">
-        <v>0.17452</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0.02871</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>0.1517</v>
+        <v>0.06544999999999999</v>
       </c>
       <c r="L113">
-        <v>0.06263000000000001</v>
+        <v>0.00661</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G114">
-        <v>0.7209100000000001</v>
+        <v>0.62903</v>
       </c>
       <c r="H114">
-        <v>0.03571</v>
+        <v>0.02306</v>
       </c>
       <c r="I114">
-        <v>0.17856</v>
+        <v>0.07177</v>
       </c>
       <c r="J114">
-        <v>0.05617</v>
+        <v>0.05144</v>
       </c>
       <c r="K114">
-        <v>0.15691</v>
+        <v>0.07969</v>
       </c>
       <c r="L114">
-        <v>0.06254</v>
+        <v>0.01329</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E115">
+        <v>1000</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G115">
-        <v>0.69396</v>
+        <v>0.66548</v>
       </c>
       <c r="H115">
-        <v>0.02116</v>
+        <v>0.04621</v>
       </c>
       <c r="I115">
-        <v>0.18483</v>
+        <v>0.13147</v>
       </c>
       <c r="J115">
-        <v>0.01824</v>
+        <v>0.02325</v>
       </c>
       <c r="K115">
-        <v>0.15272</v>
+        <v>0.10958</v>
       </c>
       <c r="L115">
-        <v>0.03745</v>
+        <v>0.02864</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E116">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G116">
-        <v>0.62988</v>
+        <v>0.61613</v>
       </c>
       <c r="H116">
-        <v>0.01214</v>
+        <v>0.02657</v>
       </c>
       <c r="I116">
-        <v>0.12194</v>
+        <v>0.08562</v>
       </c>
       <c r="J116">
-        <v>0.01318</v>
+        <v>0.02499</v>
       </c>
       <c r="K116">
-        <v>0.08637</v>
+        <v>0.07321</v>
       </c>
       <c r="L116">
-        <v>0.01328</v>
+        <v>0.00893</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>0.68281</v>
+        <v>0.60873</v>
       </c>
       <c r="H117">
-        <v>0.03373</v>
+        <v>0.02017</v>
       </c>
       <c r="I117">
-        <v>0.13798</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0.01976</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>0.12827</v>
+        <v>0.06906</v>
       </c>
       <c r="L117">
-        <v>0.0437</v>
+        <v>0.00797</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E118">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G118">
-        <v>0.67254</v>
+        <v>0.62209</v>
       </c>
       <c r="H118">
-        <v>0.04837</v>
+        <v>0.046</v>
       </c>
       <c r="I118">
-        <v>0.1369</v>
+        <v>0.02997</v>
       </c>
       <c r="J118">
-        <v>0.02388</v>
+        <v>0.02297</v>
       </c>
       <c r="K118">
-        <v>0.11486</v>
+        <v>0.07031999999999999</v>
       </c>
       <c r="L118">
-        <v>0.03334</v>
+        <v>0.00397</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D119" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119">
-        <v>0.66506</v>
+        <v>0.73583</v>
       </c>
       <c r="H119">
-        <v>0.03496</v>
+        <v>0.03999</v>
       </c>
       <c r="I119">
-        <v>0.14004</v>
+        <v>0.20407</v>
       </c>
       <c r="J119">
-        <v>0.01682</v>
+        <v>0.03798</v>
       </c>
       <c r="K119">
-        <v>0.11599</v>
+        <v>0.18617</v>
       </c>
       <c r="L119">
-        <v>0.03018</v>
+        <v>0.05582</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G120">
-        <v>0.62226</v>
+        <v>0.74716</v>
       </c>
       <c r="H120">
-        <v>0.03342</v>
+        <v>0.03524</v>
       </c>
       <c r="I120">
-        <v>0.12743</v>
+        <v>0.20903</v>
       </c>
       <c r="J120">
-        <v>0.03899</v>
+        <v>0.0383</v>
       </c>
       <c r="K120">
-        <v>0.09931</v>
+        <v>0.17457</v>
       </c>
       <c r="L120">
-        <v>0.02378</v>
+        <v>0.04519</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G121">
-        <v>0.6469200000000001</v>
+        <v>0.71548</v>
       </c>
       <c r="H121">
-        <v>0.0404</v>
+        <v>0.04673</v>
       </c>
       <c r="I121">
-        <v>0.05951</v>
+        <v>0.20364</v>
       </c>
       <c r="J121">
-        <v>0.04581</v>
+        <v>0.03132</v>
       </c>
       <c r="K121">
-        <v>0.10417</v>
+        <v>0.17391</v>
       </c>
       <c r="L121">
-        <v>0.02724</v>
+        <v>0.05062</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G122">
-        <v>0.6093499999999999</v>
+        <v>0.74532</v>
       </c>
       <c r="H122">
-        <v>0.04806</v>
+        <v>0.04255</v>
       </c>
       <c r="I122">
-        <v>0.05156</v>
+        <v>0.22527</v>
       </c>
       <c r="J122">
-        <v>0.03819</v>
+        <v>0.02929</v>
       </c>
       <c r="K122">
-        <v>0.08823</v>
+        <v>0.16888</v>
       </c>
       <c r="L122">
-        <v>0.02342</v>
+        <v>0.04746</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5012,151 +5051,139 @@
         <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G123">
-        <v>0.71601</v>
+        <v>0.75079</v>
       </c>
       <c r="H123">
-        <v>0.04043</v>
+        <v>0.03367</v>
       </c>
       <c r="I123">
-        <v>0.15123</v>
+        <v>0.21888</v>
       </c>
       <c r="J123">
-        <v>0.02221</v>
+        <v>0.05374</v>
       </c>
       <c r="K123">
-        <v>0.14491</v>
+        <v>0.17887</v>
       </c>
       <c r="L123">
-        <v>0.03581</v>
+        <v>0.07066</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G124">
-        <v>0.6597</v>
+        <v>0.73049</v>
       </c>
       <c r="H124">
-        <v>0.05253</v>
+        <v>0.04671</v>
       </c>
       <c r="I124">
-        <v>0.17624</v>
+        <v>0.21537</v>
       </c>
       <c r="J124">
-        <v>0.03619</v>
+        <v>0.03661</v>
       </c>
       <c r="K124">
-        <v>0.12415</v>
+        <v>0.1674</v>
       </c>
       <c r="L124">
-        <v>0.03355</v>
+        <v>0.04602</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G125">
-        <v>0.65288</v>
+        <v>0.72072</v>
       </c>
       <c r="H125">
-        <v>0.06064</v>
+        <v>0.03095</v>
       </c>
       <c r="I125">
-        <v>0.008330000000000001</v>
+        <v>0.17452</v>
       </c>
       <c r="J125">
-        <v>0.01863</v>
+        <v>0.02871</v>
       </c>
       <c r="K125">
-        <v>0.09773999999999999</v>
+        <v>0.1517</v>
       </c>
       <c r="L125">
-        <v>0.02951</v>
+        <v>0.06263000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G126">
-        <v>0.63579</v>
+        <v>0.7209100000000001</v>
       </c>
       <c r="H126">
-        <v>0.07607999999999999</v>
+        <v>0.03571</v>
       </c>
       <c r="I126">
-        <v>0.1458</v>
+        <v>0.17856</v>
       </c>
       <c r="J126">
-        <v>0.06625</v>
+        <v>0.05617</v>
       </c>
       <c r="K126">
-        <v>0.09078</v>
+        <v>0.15691</v>
       </c>
       <c r="L126">
-        <v>0.0334</v>
+        <v>0.06254</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5164,37 +5191,34 @@
         <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G127">
-        <v>0.7258</v>
+        <v>0.69396</v>
       </c>
       <c r="H127">
-        <v>0.06198</v>
+        <v>0.02116</v>
       </c>
       <c r="I127">
-        <v>0.16485</v>
+        <v>0.18483</v>
       </c>
       <c r="J127">
-        <v>0.03261</v>
+        <v>0.01824</v>
       </c>
       <c r="K127">
-        <v>0.1771</v>
+        <v>0.15272</v>
       </c>
       <c r="L127">
-        <v>0.07546</v>
+        <v>0.03745</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5202,75 +5226,75 @@
         <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E128">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G128">
-        <v>0.68121</v>
+        <v>0.6339</v>
       </c>
       <c r="H128">
-        <v>0.04864</v>
+        <v>0.0244</v>
       </c>
       <c r="I128">
-        <v>0.19726</v>
+        <v>0.12491</v>
       </c>
       <c r="J128">
-        <v>0.03592</v>
+        <v>0.01796</v>
       </c>
       <c r="K128">
-        <v>0.1281</v>
+        <v>0.09954</v>
       </c>
       <c r="L128">
-        <v>0.03422</v>
+        <v>0.01956</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G129">
-        <v>0.6987</v>
+        <v>0.62988</v>
       </c>
       <c r="H129">
-        <v>0.0605</v>
+        <v>0.01214</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>0.12194</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>0.01318</v>
       </c>
       <c r="K129">
-        <v>0.12129</v>
+        <v>0.08637</v>
       </c>
       <c r="L129">
-        <v>0.02293</v>
+        <v>0.01328</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5278,75 +5302,75 @@
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G130">
-        <v>0.67278</v>
+        <v>0.67854</v>
       </c>
       <c r="H130">
-        <v>0.05037</v>
+        <v>0.04437</v>
       </c>
       <c r="I130">
-        <v>0.14236</v>
+        <v>0.1358</v>
       </c>
       <c r="J130">
-        <v>0.02035</v>
+        <v>0.02374</v>
       </c>
       <c r="K130">
-        <v>0.12245</v>
+        <v>0.12486</v>
       </c>
       <c r="L130">
-        <v>0.02392</v>
+        <v>0.03484</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G131">
-        <v>0.7424500000000001</v>
+        <v>0.68281</v>
       </c>
       <c r="H131">
-        <v>0.06479</v>
+        <v>0.03373</v>
       </c>
       <c r="I131">
-        <v>0.17553</v>
+        <v>0.13798</v>
       </c>
       <c r="J131">
-        <v>0.03876</v>
+        <v>0.01976</v>
       </c>
       <c r="K131">
-        <v>0.18741</v>
+        <v>0.12827</v>
       </c>
       <c r="L131">
-        <v>0.06662999999999999</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5354,75 +5378,75 @@
         <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E132">
         <v>100</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G132">
-        <v>0.69928</v>
+        <v>0.66271</v>
       </c>
       <c r="H132">
-        <v>0.06864000000000001</v>
+        <v>0.03272</v>
       </c>
       <c r="I132">
-        <v>0.20838</v>
+        <v>0.13685</v>
       </c>
       <c r="J132">
-        <v>0.03656</v>
+        <v>0.02734</v>
       </c>
       <c r="K132">
-        <v>0.13888</v>
+        <v>0.1135</v>
       </c>
       <c r="L132">
-        <v>0.03192</v>
+        <v>0.03148</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E133">
         <v>100</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G133">
-        <v>0.69938</v>
+        <v>0.67254</v>
       </c>
       <c r="H133">
-        <v>0.04665</v>
+        <v>0.04837</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.1369</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>0.02388</v>
       </c>
       <c r="K133">
-        <v>0.1158</v>
+        <v>0.11486</v>
       </c>
       <c r="L133">
-        <v>0.01914</v>
+        <v>0.03334</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5430,188 +5454,787 @@
         <v>31</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E134">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G134">
-        <v>0.68915</v>
+        <v>0.67538</v>
       </c>
       <c r="H134">
-        <v>0.06895</v>
+        <v>0.04863</v>
       </c>
       <c r="I134">
-        <v>0.11705</v>
+        <v>0.13312</v>
       </c>
       <c r="J134">
-        <v>0.02138</v>
+        <v>0.02246</v>
       </c>
       <c r="K134">
-        <v>0.12804</v>
+        <v>0.13684</v>
       </c>
       <c r="L134">
-        <v>0.02449</v>
+        <v>0.05197</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E135">
         <v>1000</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G135">
-        <v>0.72824</v>
+        <v>0.66506</v>
       </c>
       <c r="H135">
-        <v>0.06301</v>
+        <v>0.03496</v>
       </c>
       <c r="I135">
-        <v>0.15686</v>
+        <v>0.14004</v>
       </c>
       <c r="J135">
-        <v>0.02775</v>
+        <v>0.01682</v>
       </c>
       <c r="K135">
-        <v>0.17493</v>
+        <v>0.11599</v>
       </c>
       <c r="L135">
-        <v>0.06137</v>
+        <v>0.03018</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E136">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G136">
-        <v>0.70679</v>
+        <v>0.62226</v>
       </c>
       <c r="H136">
-        <v>0.06029</v>
+        <v>0.03342</v>
       </c>
       <c r="I136">
-        <v>0.20443</v>
+        <v>0.12743</v>
       </c>
       <c r="J136">
-        <v>0.05654</v>
+        <v>0.03899</v>
       </c>
       <c r="K136">
-        <v>0.14884</v>
+        <v>0.09931</v>
       </c>
       <c r="L136">
-        <v>0.04299</v>
+        <v>0.02378</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
-      </c>
-      <c r="E137">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G137">
-        <v>0.6822</v>
+        <v>0.6469200000000001</v>
       </c>
       <c r="H137">
-        <v>0.04734</v>
+        <v>0.0404</v>
       </c>
       <c r="I137">
-        <v>0.03847</v>
+        <v>0.05951</v>
       </c>
       <c r="J137">
-        <v>0.02586</v>
+        <v>0.04581</v>
       </c>
       <c r="K137">
-        <v>0.10884</v>
+        <v>0.10417</v>
       </c>
       <c r="L137">
-        <v>0.02177</v>
+        <v>0.02724</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138">
+        <v>0.6093499999999999</v>
+      </c>
+      <c r="H138">
+        <v>0.04806</v>
+      </c>
+      <c r="I138">
+        <v>0.05156</v>
+      </c>
+      <c r="J138">
+        <v>0.03819</v>
+      </c>
+      <c r="K138">
+        <v>0.08823</v>
+      </c>
+      <c r="L138">
+        <v>0.02342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" t="s">
+        <v>42</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139">
+        <v>0.71601</v>
+      </c>
+      <c r="H139">
+        <v>0.04043</v>
+      </c>
+      <c r="I139">
+        <v>0.15123</v>
+      </c>
+      <c r="J139">
+        <v>0.02221</v>
+      </c>
+      <c r="K139">
+        <v>0.14491</v>
+      </c>
+      <c r="L139">
+        <v>0.03581</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
         <v>35</v>
       </c>
-      <c r="D138" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138">
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140">
+        <v>0.6597</v>
+      </c>
+      <c r="H140">
+        <v>0.05253</v>
+      </c>
+      <c r="I140">
+        <v>0.17624</v>
+      </c>
+      <c r="J140">
+        <v>0.03619</v>
+      </c>
+      <c r="K140">
+        <v>0.12415</v>
+      </c>
+      <c r="L140">
+        <v>0.03355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141">
+        <v>0.65288</v>
+      </c>
+      <c r="H141">
+        <v>0.06064</v>
+      </c>
+      <c r="I141">
+        <v>0.008330000000000001</v>
+      </c>
+      <c r="J141">
+        <v>0.01863</v>
+      </c>
+      <c r="K141">
+        <v>0.09773999999999999</v>
+      </c>
+      <c r="L141">
+        <v>0.02951</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>45</v>
+      </c>
+      <c r="G142">
+        <v>0.63579</v>
+      </c>
+      <c r="H142">
+        <v>0.07607999999999999</v>
+      </c>
+      <c r="I142">
+        <v>0.1458</v>
+      </c>
+      <c r="J142">
+        <v>0.06625</v>
+      </c>
+      <c r="K142">
+        <v>0.09078</v>
+      </c>
+      <c r="L142">
+        <v>0.0334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143">
+        <v>0.7258</v>
+      </c>
+      <c r="H143">
+        <v>0.06198</v>
+      </c>
+      <c r="I143">
+        <v>0.16485</v>
+      </c>
+      <c r="J143">
+        <v>0.03261</v>
+      </c>
+      <c r="K143">
+        <v>0.1771</v>
+      </c>
+      <c r="L143">
+        <v>0.07546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144">
+        <v>50</v>
+      </c>
+      <c r="F144" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144">
+        <v>0.68121</v>
+      </c>
+      <c r="H144">
+        <v>0.04864</v>
+      </c>
+      <c r="I144">
+        <v>0.19726</v>
+      </c>
+      <c r="J144">
+        <v>0.03592</v>
+      </c>
+      <c r="K144">
+        <v>0.1281</v>
+      </c>
+      <c r="L144">
+        <v>0.03422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145">
+        <v>50</v>
+      </c>
+      <c r="F145" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145">
+        <v>0.6987</v>
+      </c>
+      <c r="H145">
+        <v>0.0605</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0.12129</v>
+      </c>
+      <c r="L145">
+        <v>0.02293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146" t="s">
+        <v>45</v>
+      </c>
+      <c r="G146">
+        <v>0.67278</v>
+      </c>
+      <c r="H146">
+        <v>0.05037</v>
+      </c>
+      <c r="I146">
+        <v>0.14236</v>
+      </c>
+      <c r="J146">
+        <v>0.02035</v>
+      </c>
+      <c r="K146">
+        <v>0.12245</v>
+      </c>
+      <c r="L146">
+        <v>0.02392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147" t="s">
+        <v>47</v>
+      </c>
+      <c r="G147">
+        <v>0.7424500000000001</v>
+      </c>
+      <c r="H147">
+        <v>0.06479</v>
+      </c>
+      <c r="I147">
+        <v>0.17553</v>
+      </c>
+      <c r="J147">
+        <v>0.03876</v>
+      </c>
+      <c r="K147">
+        <v>0.18741</v>
+      </c>
+      <c r="L147">
+        <v>0.06662999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148">
+        <v>0.69928</v>
+      </c>
+      <c r="H148">
+        <v>0.06864000000000001</v>
+      </c>
+      <c r="I148">
+        <v>0.20838</v>
+      </c>
+      <c r="J148">
+        <v>0.03656</v>
+      </c>
+      <c r="K148">
+        <v>0.13888</v>
+      </c>
+      <c r="L148">
+        <v>0.03192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149">
+        <v>0.69938</v>
+      </c>
+      <c r="H149">
+        <v>0.04665</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0.1158</v>
+      </c>
+      <c r="L149">
+        <v>0.01914</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150">
+        <v>0.68915</v>
+      </c>
+      <c r="H150">
+        <v>0.06895</v>
+      </c>
+      <c r="I150">
+        <v>0.11705</v>
+      </c>
+      <c r="J150">
+        <v>0.02138</v>
+      </c>
+      <c r="K150">
+        <v>0.12804</v>
+      </c>
+      <c r="L150">
+        <v>0.02449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151">
         <v>1000</v>
       </c>
-      <c r="F138" t="s">
-        <v>41</v>
-      </c>
-      <c r="G138">
+      <c r="F151" t="s">
+        <v>47</v>
+      </c>
+      <c r="G151">
+        <v>0.72824</v>
+      </c>
+      <c r="H151">
+        <v>0.06301</v>
+      </c>
+      <c r="I151">
+        <v>0.15686</v>
+      </c>
+      <c r="J151">
+        <v>0.02775</v>
+      </c>
+      <c r="K151">
+        <v>0.17493</v>
+      </c>
+      <c r="L151">
+        <v>0.06137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152">
+        <v>1000</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152">
+        <v>0.70679</v>
+      </c>
+      <c r="H152">
+        <v>0.06029</v>
+      </c>
+      <c r="I152">
+        <v>0.20443</v>
+      </c>
+      <c r="J152">
+        <v>0.05654</v>
+      </c>
+      <c r="K152">
+        <v>0.14884</v>
+      </c>
+      <c r="L152">
+        <v>0.04299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153">
+        <v>1000</v>
+      </c>
+      <c r="F153" t="s">
+        <v>44</v>
+      </c>
+      <c r="G153">
+        <v>0.6822</v>
+      </c>
+      <c r="H153">
+        <v>0.04734</v>
+      </c>
+      <c r="I153">
+        <v>0.03847</v>
+      </c>
+      <c r="J153">
+        <v>0.02586</v>
+      </c>
+      <c r="K153">
+        <v>0.10884</v>
+      </c>
+      <c r="L153">
+        <v>0.02177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154">
+        <v>1000</v>
+      </c>
+      <c r="F154" t="s">
+        <v>45</v>
+      </c>
+      <c r="G154">
         <v>0.69135</v>
       </c>
-      <c r="H138">
+      <c r="H154">
         <v>0.04283</v>
       </c>
-      <c r="I138">
+      <c r="I154">
         <v>0.08132</v>
       </c>
-      <c r="J138">
+      <c r="J154">
         <v>0.0573</v>
       </c>
-      <c r="K138">
+      <c r="K154">
         <v>0.12305</v>
       </c>
-      <c r="L138">
+      <c r="L154">
         <v>0.03485</v>
       </c>
     </row>
